--- a/nuon/instagram_posts_k_ji_h.xlsx
+++ b/nuon/instagram_posts_k_ji_h.xlsx
@@ -1608,7 +1608,7 @@
         <v>2</v>
       </c>
       <c r="D17">
-        <v>3</v>
+        <v>471</v>
       </c>
       <c r="E17">
         <v>8</v>
@@ -1705,7 +1705,7 @@
         <v>2</v>
       </c>
       <c r="D19">
-        <v>3</v>
+        <v>577</v>
       </c>
       <c r="E19">
         <v>5</v>
@@ -2378,7 +2378,7 @@
         <v>2</v>
       </c>
       <c r="D33">
-        <v>3</v>
+        <v>251</v>
       </c>
       <c r="E33">
         <v>4</v>
